--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -4,19 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="Неудовлетворительно">Лист3!$H$2:$H$8</definedName>
+    <definedName name="Неявка">Лист3!$I$2:$I$8</definedName>
+    <definedName name="Отлино">Лист3!$E$2:$E$8</definedName>
+    <definedName name="Отлично">Лист3!$E$2:$E$8</definedName>
+    <definedName name="Удовлетворительно">Лист3!$G$2:$G$8</definedName>
+    <definedName name="Хорошо">Лист3!$F$2:$F$8</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>ТОРТЫ</t>
   </si>
@@ -79,6 +88,114 @@
   </si>
   <si>
     <t>Всего</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Фам., имя, отчество</t>
+  </si>
+  <si>
+    <t>№ зач. Книжки</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Кол-во 5</t>
+  </si>
+  <si>
+    <t>Кол-во 4</t>
+  </si>
+  <si>
+    <t>Кол-во 3</t>
+  </si>
+  <si>
+    <t>Кол-во 2</t>
+  </si>
+  <si>
+    <t>Неявка</t>
+  </si>
+  <si>
+    <t>Демидов М. И.</t>
+  </si>
+  <si>
+    <t>Иванов И. П.</t>
+  </si>
+  <si>
+    <t>Кукушкин В. Л.</t>
+  </si>
+  <si>
+    <t>Орлов А. П.</t>
+  </si>
+  <si>
+    <t>Петров К. Н.</t>
+  </si>
+  <si>
+    <t>Сидоров В. О.</t>
+  </si>
+  <si>
+    <t>Фролов В. А.</t>
+  </si>
+  <si>
+    <t>н/я</t>
+  </si>
+  <si>
+    <t>ИТОГИ СЕССИИ</t>
+  </si>
+  <si>
+    <t>Количество отличных оценок</t>
+  </si>
+  <si>
+    <t>Количество хороший оценок</t>
+  </si>
+  <si>
+    <t>Количество удовлетворительных оценок</t>
+  </si>
+  <si>
+    <t>Количество неудовлетворительных оценок</t>
+  </si>
+  <si>
+    <t>Неявки</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>Ф. И. О.</t>
+  </si>
+  <si>
+    <t>Зарплата</t>
+  </si>
+  <si>
+    <t>1ин</t>
+  </si>
+  <si>
+    <t>2ин</t>
+  </si>
+  <si>
+    <t>3ин</t>
+  </si>
+  <si>
+    <t>4ин</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Кузнецов</t>
+  </si>
+  <si>
+    <t>Свиридов</t>
+  </si>
+  <si>
+    <t>Молотов</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Петров</t>
   </si>
 </sst>
 </file>
@@ -145,13 +262,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -162,12 +277,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,11 +502,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="38211584"/>
-        <c:axId val="99812480"/>
+        <c:axId val="127956480"/>
+        <c:axId val="98691904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38211584"/>
+        <c:axId val="127956480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99812480"/>
+        <c:crossAx val="98691904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -387,7 +523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99812480"/>
+        <c:axId val="98691904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38211584"/>
+        <c:crossAx val="127956480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -612,11 +748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38212608"/>
-        <c:axId val="99869824"/>
+        <c:axId val="127957504"/>
+        <c:axId val="98694208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38212608"/>
+        <c:axId val="127957504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99869824"/>
+        <c:crossAx val="98694208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -633,7 +769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99869824"/>
+        <c:axId val="98694208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,7 +780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38212608"/>
+        <c:crossAx val="127957504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1051,11 +1187,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82550272"/>
-        <c:axId val="58925056"/>
+        <c:axId val="127958528"/>
+        <c:axId val="129025152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82550272"/>
+        <c:axId val="127958528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58925056"/>
+        <c:crossAx val="129025152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1072,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58925056"/>
+        <c:axId val="129025152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82550272"/>
+        <c:crossAx val="127958528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1207,11 +1343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="59414016"/>
-        <c:axId val="100707136"/>
+        <c:axId val="117097472"/>
+        <c:axId val="129028032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59414016"/>
+        <c:axId val="117097472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100707136"/>
+        <c:crossAx val="129028032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1228,7 +1364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100707136"/>
+        <c:axId val="129028032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59414016"/>
+        <c:crossAx val="117097472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1586,7 +1722,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1596,11 +1731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="62245888"/>
-        <c:axId val="200652992"/>
+        <c:axId val="129078784"/>
+        <c:axId val="129030912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62245888"/>
+        <c:axId val="129078784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1744,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200652992"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129030912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1617,7 +1762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200652992"/>
+        <c:axId val="129030912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,7 +1773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62245888"/>
+        <c:crossAx val="129078784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2287,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" activeCellId="1" sqref="A4:B9 E4:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,36 +2446,36 @@
       <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
@@ -2345,13 +2490,13 @@
       <c r="E5" s="1">
         <v>7896</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f>SUM(B5:E5)</f>
         <v>16062</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
@@ -2366,13 +2511,13 @@
       <c r="E6" s="1">
         <v>6541</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <f t="shared" ref="F6:F9" si="0">SUM(B6:E6)</f>
         <v>17099</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
@@ -2387,13 +2532,13 @@
       <c r="E7" s="1">
         <v>6512</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>16682</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
@@ -2408,13 +2553,13 @@
       <c r="E8" s="1">
         <v>6541</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>17099</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1">
@@ -2429,37 +2574,41 @@
       <c r="E9" s="1">
         <v>3214</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>20464</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <f>SUM(B5:B9)</f>
         <v>25790</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <f t="shared" ref="C10:E10" si="1">SUM(C5:C9)</f>
         <v>14050</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <f t="shared" si="1"/>
         <v>16862</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>30704</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <f>SUM(F5:F9)</f>
         <v>87406</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2468,12 +2617,578 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="11" max="12" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>119</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>IF(D2=5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>IF($D2=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>IF($D2=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF($D2=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF($D2="н/я",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUM(Отлино)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="0">IF(D3=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IF($D3=4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="1">IF($D3=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="2">IF($D3=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="3">IF($D3="н/я",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1">
+        <f>SUM(Хорошо)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>IF($D4=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1">
+        <f>SUM(Удовлетворительно)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>IF($D5=4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1">
+        <f>SUM(Неудовлетворительно)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2">
+        <v>145</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F8" si="4">IF($D6=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SUM(Неявка)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>149</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L2:L6)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="15">
+        <v>5896</v>
+      </c>
+      <c r="D2">
+        <f>IF(AND(($C2&gt;$A$10),C2&lt;=$B$10),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>IF(AND(($C2&gt;$A$11),$C2&lt;=$B$11),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>IF(AND(($C2&gt;$A$12),$C2&lt;=$B$12),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>IF(AND(($C2&gt;$A$13),$C2&lt;=$B$13),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>SUM(D2:G2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3990</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">IF(AND((C3&gt;$A$10),C3&lt;=$B$10),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="1">IF(AND(($C3&gt;$A$11),$C3&lt;=$B$11),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="2">IF(AND(($C3&gt;$A$12),$C3&lt;=$B$12),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="3">IF(AND(($C3&gt;$A$13),$C3&lt;=$B$13),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="4">SUM(D3:G3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2098</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1980</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2346</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:G7" si="5">SUM(E2:E6)</f>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2000</v>
+      </c>
+      <c r="B11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3000</v>
+      </c>
+      <c r="B12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4000</v>
+      </c>
+      <c r="B13">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>